--- a/src/main/webapp/static/core/system/org/importTemplete/人员导入.xlsx
+++ b/src/main/webapp/static/core/system/org/importTemplete/人员导入.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="179">
   <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,11 +577,14 @@
     <t>ZW007</t>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>上海分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,12 +710,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -758,7 +760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,7 +795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1004,9 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,918 +1058,957 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="7">
         <v>32438</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1">
         <v>13666788982</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7">
         <v>32439</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1">
         <v>13666788983</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>178</v>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
         <v>32440</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1">
         <v>13666788984</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="1">
-        <v>100</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>178</v>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7">
         <v>32441</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1">
         <v>13666788985</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>178</v>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7">
         <v>32442</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1">
         <v>13666788986</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>178</v>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7">
         <v>32443</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1">
         <v>13666788987</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
         <v>32444</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1">
         <v>13666788988</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7">
         <v>32445</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1">
         <v>13666788989</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
-      </c>
-      <c r="L9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
         <v>32446</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1">
         <v>13666788990</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
         <v>32447</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1">
         <v>13666788991</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7">
         <v>32448</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1">
         <v>13666788992</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
-      </c>
-      <c r="L12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
         <v>32449</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1">
         <v>13666788993</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100</v>
-      </c>
-      <c r="L13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7">
         <v>32450</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="1">
         <v>13666788994</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100</v>
-      </c>
-      <c r="L14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
         <v>32451</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1">
         <v>13666788995</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
         <v>32452</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1">
         <v>13666788996</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K16" s="1">
         <v>100</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>177</v>
+      <c r="L16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7">
         <v>32453</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1">
         <v>13666788997</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" s="1">
         <v>100</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>177</v>
+      <c r="L17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7">
         <v>32454</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1">
         <v>13666788998</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="1">
         <v>100</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>177</v>
+      <c r="L18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7">
         <v>32455</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="1">
         <v>13666788999</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="1">
         <v>100</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>177</v>
+      <c r="L19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
         <v>32456</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1">
         <v>13666789000</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" s="1">
         <v>100</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>177</v>
+      <c r="L20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7">
         <v>32457</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1">
         <v>13666789001</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K21" s="1">
         <v>100</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>177</v>
+      <c r="L21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7">
         <v>32458</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1">
         <v>13666789002</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K22" s="1">
         <v>100</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>177</v>
+      <c r="L22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7">
         <v>32459</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="1">
         <v>13666789003</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K23" s="1">
         <v>100</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>177</v>
+      <c r="L23" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="7">
         <v>32460</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1">
         <v>13666789004</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="1">
         <v>100</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>177</v>
+      <c r="L24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7">
         <v>32461</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1">
         <v>13666789005</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25" s="1">
         <v>100</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>177</v>
+      <c r="L25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="7">
         <v>32462</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1">
         <v>13666789006</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>177</v>
+      <c r="L26" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
